--- a/Code/Results/Cases/Case_9_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.610236238737059</v>
+        <v>2.613623754466687</v>
       </c>
       <c r="C2">
-        <v>0.5349258662401724</v>
+        <v>0.6139856235871548</v>
       </c>
       <c r="D2">
-        <v>0.03889783897520616</v>
+        <v>0.04154498966651232</v>
       </c>
       <c r="E2">
-        <v>0.0574587828540245</v>
+        <v>0.05520529298579113</v>
       </c>
       <c r="F2">
-        <v>1.178363015957387</v>
+        <v>0.9504108692007947</v>
       </c>
       <c r="G2">
-        <v>1.14538361897236</v>
+        <v>0.8644659983824994</v>
       </c>
       <c r="H2">
-        <v>0.004158693436897343</v>
+        <v>0.003187597864855118</v>
       </c>
       <c r="I2">
-        <v>0.004179629183268752</v>
+        <v>0.002867543293980646</v>
       </c>
       <c r="J2">
-        <v>0.7296047874285279</v>
+        <v>0.6294730233860832</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.257032685353046</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1778032141769437</v>
       </c>
       <c r="N2">
-        <v>0.1569681311462858</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4344972048617848</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1705847859806653</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4406572498012551</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272435140887069</v>
+        <v>2.276415416619727</v>
       </c>
       <c r="C3">
-        <v>0.4796393747782304</v>
+        <v>0.541144235693281</v>
       </c>
       <c r="D3">
-        <v>0.03816448036326037</v>
+        <v>0.03945823805109683</v>
       </c>
       <c r="E3">
-        <v>0.05400054761608242</v>
+        <v>0.05234487609542615</v>
       </c>
       <c r="F3">
-        <v>1.081793352927789</v>
+        <v>0.885273736454451</v>
       </c>
       <c r="G3">
-        <v>1.051204264002948</v>
+        <v>0.8078416328777394</v>
       </c>
       <c r="H3">
-        <v>0.006543957940434553</v>
+        <v>0.005065233216753784</v>
       </c>
       <c r="I3">
-        <v>0.006796009430387606</v>
+        <v>0.00465979151108753</v>
       </c>
       <c r="J3">
-        <v>0.6902338743236527</v>
+        <v>0.6030004281419679</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2587453234274122</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1696770760885364</v>
       </c>
       <c r="N3">
-        <v>0.138836854135846</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3789938826209678</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1516152739178764</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3842206207201642</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065166555762971</v>
+        <v>2.069239554828243</v>
       </c>
       <c r="C4">
-        <v>0.4459746761046119</v>
+        <v>0.4969180947067002</v>
       </c>
       <c r="D4">
-        <v>0.0376965299458476</v>
+        <v>0.03818825514993662</v>
       </c>
       <c r="E4">
-        <v>0.05186284594913648</v>
+        <v>0.05057458323873743</v>
       </c>
       <c r="F4">
-        <v>1.023036594414634</v>
+        <v>0.8455274757447171</v>
       </c>
       <c r="G4">
-        <v>0.9937753039203159</v>
+        <v>0.7734243208618921</v>
       </c>
       <c r="H4">
-        <v>0.008334299229682318</v>
+        <v>0.006480423162422866</v>
       </c>
       <c r="I4">
-        <v>0.008844279506353914</v>
+        <v>0.006100044493227763</v>
       </c>
       <c r="J4">
-        <v>0.6663440598839259</v>
+        <v>0.5866171670605809</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2596002171595551</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.165396047292397</v>
       </c>
       <c r="N4">
-        <v>0.1277508485173371</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3449642870261087</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.140012648824495</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3495920768764407</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.980664389108824</v>
+        <v>1.984715857675837</v>
       </c>
       <c r="C5">
-        <v>0.4331096782787256</v>
+        <v>0.4798239077822188</v>
       </c>
       <c r="D5">
-        <v>0.03752574812537723</v>
+        <v>0.03772119414420061</v>
       </c>
       <c r="E5">
-        <v>0.05096163202145376</v>
+        <v>0.04983543570429605</v>
       </c>
       <c r="F5">
-        <v>0.9972369043763223</v>
+        <v>0.8278470986521071</v>
       </c>
       <c r="G5">
-        <v>0.968188853357475</v>
+        <v>0.7577596014034214</v>
       </c>
       <c r="H5">
-        <v>0.009147146885670365</v>
+        <v>0.007124093490732564</v>
       </c>
       <c r="I5">
-        <v>0.009870122053368569</v>
+        <v>0.006863932787883442</v>
       </c>
       <c r="J5">
-        <v>0.6555120369273908</v>
+        <v>0.5789972415733757</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2593780072153571</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1634618526437031</v>
       </c>
       <c r="N5">
-        <v>0.1233058331338484</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3311492080388163</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1353490118877971</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3355213729834432</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.966570668059717</v>
+        <v>1.970618188966682</v>
       </c>
       <c r="C6">
-        <v>0.4319515145909065</v>
+        <v>0.4779915078541421</v>
       </c>
       <c r="D6">
-        <v>0.0375276323378575</v>
+        <v>0.03770299034712465</v>
       </c>
       <c r="E6">
-        <v>0.05078122782399985</v>
+        <v>0.04969650635756362</v>
       </c>
       <c r="F6">
-        <v>0.9905493293142769</v>
+        <v>0.8230418396343211</v>
       </c>
       <c r="G6">
-        <v>0.9611773040959974</v>
+        <v>0.7530728533816813</v>
       </c>
       <c r="H6">
-        <v>0.00929333646528463</v>
+        <v>0.007239833359060505</v>
       </c>
       <c r="I6">
-        <v>0.01015872059514855</v>
+        <v>0.00712139836153991</v>
       </c>
       <c r="J6">
-        <v>0.6523000181382486</v>
+        <v>0.5766204559704136</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2587038802371069</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1627058263550651</v>
       </c>
       <c r="N6">
-        <v>0.1226460114787571</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3289094546609093</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1346429854939757</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3332316712484271</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.063851769666371</v>
+        <v>2.067919807863007</v>
       </c>
       <c r="C7">
-        <v>0.4484706117558801</v>
+        <v>0.4989910254036261</v>
       </c>
       <c r="D7">
-        <v>0.03777830509092617</v>
+        <v>0.03844585013327162</v>
       </c>
       <c r="E7">
-        <v>0.05176777267658694</v>
+        <v>0.05049811298201301</v>
       </c>
       <c r="F7">
-        <v>1.016095231065947</v>
+        <v>0.8372993683326513</v>
       </c>
       <c r="G7">
-        <v>0.9858577680957836</v>
+        <v>0.7701529669138125</v>
       </c>
       <c r="H7">
-        <v>0.008361713688439132</v>
+        <v>0.006509042780685814</v>
       </c>
       <c r="I7">
-        <v>0.009145072821045375</v>
+        <v>0.006442177112891301</v>
       </c>
       <c r="J7">
-        <v>0.662324525632215</v>
+        <v>0.5756388906613097</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2571517082846491</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1635821450686912</v>
       </c>
       <c r="N7">
-        <v>0.1279040189646494</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3449248879958731</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1400950160792789</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3495114560269883</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493463636912452</v>
+        <v>2.497069661443902</v>
       </c>
       <c r="C8">
-        <v>0.5193746798744314</v>
+        <v>0.5909849925711228</v>
       </c>
       <c r="D8">
-        <v>0.03876569787176187</v>
+        <v>0.04140678870350101</v>
       </c>
       <c r="E8">
-        <v>0.05615981997598163</v>
+        <v>0.05409241469419368</v>
       </c>
       <c r="F8">
-        <v>1.136186689510453</v>
+        <v>0.9116518965075073</v>
       </c>
       <c r="G8">
-        <v>1.102756897210128</v>
+        <v>0.8462250563024867</v>
       </c>
       <c r="H8">
-        <v>0.004927175851033638</v>
+        <v>0.003807921041318663</v>
       </c>
       <c r="I8">
-        <v>0.005322787193314582</v>
+        <v>0.003815800202929154</v>
       </c>
       <c r="J8">
-        <v>0.7108355209566923</v>
+        <v>0.590676996363527</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2532714562651108</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1711943801065807</v>
       </c>
       <c r="N8">
-        <v>0.1509905378991618</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4155405314971361</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1641483836107156</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4212949320789647</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.338603266847826</v>
+        <v>3.338861052400205</v>
       </c>
       <c r="C9">
-        <v>0.6563210412373905</v>
+        <v>0.7724456942052598</v>
       </c>
       <c r="D9">
-        <v>0.04040238333048762</v>
+        <v>0.04662875574933167</v>
       </c>
       <c r="E9">
-        <v>0.06487448365633552</v>
+        <v>0.06123525382922734</v>
       </c>
       <c r="F9">
-        <v>1.388722427631194</v>
+        <v>1.079591453771101</v>
       </c>
       <c r="G9">
-        <v>1.349674112271941</v>
+        <v>0.999496144201828</v>
       </c>
       <c r="H9">
-        <v>0.0009521722422973777</v>
+        <v>0.0007026703277754898</v>
       </c>
       <c r="I9">
-        <v>0.001182747957670927</v>
+        <v>0.001044248508432766</v>
       </c>
       <c r="J9">
-        <v>0.81556768528813</v>
+        <v>0.6525977996703034</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2496075175258667</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1962578905482459</v>
       </c>
       <c r="N9">
-        <v>0.1963704694883859</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5543598396030589</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2115798244499913</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5622585899758832</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.967777292941435</v>
+        <v>3.963673569885486</v>
       </c>
       <c r="C10">
-        <v>0.7713117452198048</v>
+        <v>0.9175550136287995</v>
       </c>
       <c r="D10">
-        <v>0.04210334800534099</v>
+        <v>0.05233800337804695</v>
       </c>
       <c r="E10">
-        <v>0.07080460239897113</v>
+        <v>0.06653925169429264</v>
       </c>
       <c r="F10">
-        <v>1.54326946094649</v>
+        <v>1.16460973289594</v>
       </c>
       <c r="G10">
-        <v>1.494122266232409</v>
+        <v>1.103804831131313</v>
       </c>
       <c r="H10">
-        <v>0.0002095480452251053</v>
+        <v>0.0001990929108837136</v>
       </c>
       <c r="I10">
-        <v>0.0009594035716249394</v>
+        <v>0.001199685003026474</v>
       </c>
       <c r="J10">
-        <v>0.8741172560415293</v>
+        <v>0.6408685436473718</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2366477614491949</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2078852025313083</v>
       </c>
       <c r="N10">
-        <v>0.2191974912508385</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6500587811811513</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.234973139388913</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6589874318656825</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.300697855078397</v>
+        <v>4.295926242013138</v>
       </c>
       <c r="C11">
-        <v>0.9303362803063351</v>
+        <v>1.072848315493815</v>
       </c>
       <c r="D11">
-        <v>0.05040239264094382</v>
+        <v>0.06760175312329153</v>
       </c>
       <c r="E11">
-        <v>0.07706034986643662</v>
+        <v>0.0772458663664235</v>
       </c>
       <c r="F11">
-        <v>1.334903620207825</v>
+        <v>0.9874613337099447</v>
       </c>
       <c r="G11">
-        <v>1.243059823217379</v>
+        <v>0.961204454587488</v>
       </c>
       <c r="H11">
-        <v>0.0187584014017439</v>
+        <v>0.01875693712869975</v>
       </c>
       <c r="I11">
-        <v>0.001718953923470323</v>
+        <v>0.002062649560636842</v>
       </c>
       <c r="J11">
-        <v>0.7402637493792668</v>
+        <v>0.4739994994111072</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1831096851216891</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1570160265161711</v>
       </c>
       <c r="N11">
-        <v>0.1449195381301962</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6329487185012681</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1555836178799623</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6403759125541058</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.451073496305469</v>
+        <v>4.446855995095802</v>
       </c>
       <c r="C12">
-        <v>1.047896047977417</v>
+        <v>1.17740338980272</v>
       </c>
       <c r="D12">
-        <v>0.06025527863224767</v>
+        <v>0.08118643353652999</v>
       </c>
       <c r="E12">
-        <v>0.09183712912753172</v>
+        <v>0.09471589800403635</v>
       </c>
       <c r="F12">
-        <v>1.148611466563679</v>
+        <v>0.8470700972992518</v>
       </c>
       <c r="G12">
-        <v>1.030614710545109</v>
+        <v>0.8259842019733554</v>
       </c>
       <c r="H12">
-        <v>0.05743378509664154</v>
+        <v>0.05743294946650224</v>
       </c>
       <c r="I12">
-        <v>0.00179394073722694</v>
+        <v>0.002130612383614228</v>
       </c>
       <c r="J12">
-        <v>0.6295486364727765</v>
+        <v>0.3800946725403946</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1509862560033177</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1211503041345736</v>
       </c>
       <c r="N12">
-        <v>0.09255928703986882</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5981891589806239</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09966286919328837</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6043008023646621</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.467636599896309</v>
+        <v>4.465134310360725</v>
       </c>
       <c r="C13">
-        <v>1.143119250616593</v>
+        <v>1.253628400674643</v>
       </c>
       <c r="D13">
-        <v>0.07181878415274667</v>
+        <v>0.09315041083129927</v>
       </c>
       <c r="E13">
-        <v>0.1135080650294604</v>
+        <v>0.1180665030411312</v>
       </c>
       <c r="F13">
-        <v>0.9583622769656017</v>
+        <v>0.721771350155322</v>
       </c>
       <c r="G13">
-        <v>0.8239458109706277</v>
+        <v>0.6758549600004784</v>
       </c>
       <c r="H13">
-        <v>0.1132107108284686</v>
+        <v>0.1132012315507609</v>
       </c>
       <c r="I13">
-        <v>0.001628573297662861</v>
+        <v>0.001973439538624611</v>
       </c>
       <c r="J13">
-        <v>0.5241883075933913</v>
+        <v>0.3312785325828571</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1294994841707986</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09313243114723235</v>
       </c>
       <c r="N13">
-        <v>0.05454358767422463</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5483573543839597</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05903453763545485</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.553232101686838</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.41852146650217</v>
+        <v>4.417687090735114</v>
       </c>
       <c r="C14">
-        <v>1.201505432159479</v>
+        <v>1.295555447958918</v>
       </c>
       <c r="D14">
-        <v>0.08110337908870235</v>
+        <v>0.1008144889663356</v>
       </c>
       <c r="E14">
-        <v>0.1330112735231666</v>
+        <v>0.1381484184563604</v>
       </c>
       <c r="F14">
-        <v>0.824619610327602</v>
+        <v>0.6393132166720434</v>
       </c>
       <c r="G14">
-        <v>0.683877272495323</v>
+        <v>0.5669608500029142</v>
       </c>
       <c r="H14">
-        <v>0.162612135595225</v>
+        <v>0.162582916086194</v>
       </c>
       <c r="I14">
-        <v>0.001524159030805272</v>
+        <v>0.0018821414033523</v>
       </c>
       <c r="J14">
-        <v>0.4537219505196788</v>
+        <v>0.3120153241501029</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1185162420208385</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07718890970287084</v>
       </c>
       <c r="N14">
-        <v>0.03671612333791074</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5071050406521564</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03985929001452071</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5111375899443118</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.377552181096974</v>
+        <v>4.377356287256475</v>
       </c>
       <c r="C15">
-        <v>1.210749446670945</v>
+        <v>1.299998662319751</v>
       </c>
       <c r="D15">
-        <v>0.08342742490819433</v>
+        <v>0.1020909982404135</v>
       </c>
       <c r="E15">
-        <v>0.1378725487631485</v>
+        <v>0.1430825269854736</v>
       </c>
       <c r="F15">
-        <v>0.7881079892219418</v>
+        <v>0.6189676691423713</v>
       </c>
       <c r="G15">
-        <v>0.6470198266946738</v>
+        <v>0.5359428110059952</v>
       </c>
       <c r="H15">
-        <v>0.1751582577774826</v>
+        <v>0.1751158169960689</v>
       </c>
       <c r="I15">
-        <v>0.001584696124508511</v>
+        <v>0.001962232595465352</v>
       </c>
       <c r="J15">
-        <v>0.4357219225707638</v>
+        <v>0.3122636817765994</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1166490483536204</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07388182973542357</v>
       </c>
       <c r="N15">
-        <v>0.03346691652835787</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4939819586795622</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03637934742081406</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4978053631885047</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.100376891677513</v>
+        <v>4.102200943575951</v>
       </c>
       <c r="C16">
-        <v>1.139744410495524</v>
+        <v>1.224926227800552</v>
       </c>
       <c r="D16">
-        <v>0.07999073271627566</v>
+        <v>0.09402317998650744</v>
       </c>
       <c r="E16">
-        <v>0.1301472580601128</v>
+        <v>0.1354819042857009</v>
       </c>
       <c r="F16">
-        <v>0.7599224986060733</v>
+        <v>0.6230777441176443</v>
       </c>
       <c r="G16">
-        <v>0.626708443624338</v>
+        <v>0.5026351005885772</v>
       </c>
       <c r="H16">
-        <v>0.162717307535118</v>
+        <v>0.1625714978026309</v>
       </c>
       <c r="I16">
-        <v>0.001601993706963789</v>
+        <v>0.001913139803034092</v>
       </c>
       <c r="J16">
-        <v>0.4313884797156078</v>
+        <v>0.361368453626568</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1240310966307607</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07847468903852928</v>
       </c>
       <c r="N16">
-        <v>0.03276721757008438</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.464456663439087</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03619221260528249</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4682624914097886</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.914675431856551</v>
+        <v>3.917051258235006</v>
       </c>
       <c r="C17">
-        <v>1.054199623615432</v>
+        <v>1.144349187096708</v>
       </c>
       <c r="D17">
-        <v>0.07222837334120413</v>
+        <v>0.08447677717565938</v>
       </c>
       <c r="E17">
-        <v>0.1130868262046292</v>
+        <v>0.1182279311879064</v>
       </c>
       <c r="F17">
-        <v>0.807507576197537</v>
+        <v>0.6677397754625787</v>
       </c>
       <c r="G17">
-        <v>0.6829686676714317</v>
+        <v>0.5349810726673354</v>
       </c>
       <c r="H17">
-        <v>0.1251872256838169</v>
+        <v>0.1249598888429233</v>
       </c>
       <c r="I17">
-        <v>0.001772028587327057</v>
+        <v>0.002005173889631173</v>
       </c>
       <c r="J17">
-        <v>0.4643480712858263</v>
+        <v>0.4083243930167555</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1362431866914804</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08974541282228543</v>
       </c>
       <c r="N17">
-        <v>0.04011242400758874</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4634704079704477</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04459045447273979</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4676791904810571</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.786751300474009</v>
+        <v>3.788667143012219</v>
       </c>
       <c r="C18">
-        <v>0.9482697797549804</v>
+        <v>1.051012661102391</v>
       </c>
       <c r="D18">
-        <v>0.06110380821873918</v>
+        <v>0.07267058441608043</v>
       </c>
       <c r="E18">
-        <v>0.09087582255039806</v>
+        <v>0.09509327411094048</v>
       </c>
       <c r="F18">
-        <v>0.9363526052627975</v>
+        <v>0.7645743180221558</v>
       </c>
       <c r="G18">
-        <v>0.8255949322842611</v>
+        <v>0.6315377258805341</v>
       </c>
       <c r="H18">
-        <v>0.07244564838421041</v>
+        <v>0.07219210456770497</v>
       </c>
       <c r="I18">
-        <v>0.001621437575763274</v>
+        <v>0.001768704076208216</v>
       </c>
       <c r="J18">
-        <v>0.5400590924775486</v>
+        <v>0.4724914648634382</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1579431267863036</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1116865318844518</v>
       </c>
       <c r="N18">
-        <v>0.06283717335244177</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4870809891096002</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06932728005115862</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.492200439174681</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.714733196697352</v>
+        <v>3.715482243734982</v>
       </c>
       <c r="C19">
-        <v>0.8478541508347632</v>
+        <v>0.9655074608613177</v>
       </c>
       <c r="D19">
-        <v>0.05096739955739693</v>
+        <v>0.06173609101944777</v>
       </c>
       <c r="E19">
-        <v>0.07373049091290618</v>
+        <v>0.07570110903495397</v>
       </c>
       <c r="F19">
-        <v>1.122437924721154</v>
+        <v>0.8970458174684524</v>
       </c>
       <c r="G19">
-        <v>1.032407003132192</v>
+        <v>0.7724806952568315</v>
       </c>
       <c r="H19">
-        <v>0.02703657521409752</v>
+        <v>0.02682524832119526</v>
       </c>
       <c r="I19">
-        <v>0.001706838622070883</v>
+        <v>0.001899920635675123</v>
       </c>
       <c r="J19">
-        <v>0.6467084747755081</v>
+        <v>0.5498470583437154</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1877280634799376</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1429132578092585</v>
       </c>
       <c r="N19">
-        <v>0.1081199124492329</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5298248073230525</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1177377511027089</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5362224367349384</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.801758767965282</v>
+        <v>3.799177323464562</v>
       </c>
       <c r="C20">
-        <v>0.7501334212134623</v>
+        <v>0.8904158154359152</v>
       </c>
       <c r="D20">
-        <v>0.0420233667547123</v>
+        <v>0.05106386078204039</v>
       </c>
       <c r="E20">
-        <v>0.06897901598571932</v>
+        <v>0.0651337247691206</v>
       </c>
       <c r="F20">
-        <v>1.480399003079043</v>
+        <v>1.135862894457318</v>
       </c>
       <c r="G20">
-        <v>1.430728920863515</v>
+        <v>1.047931749199947</v>
       </c>
       <c r="H20">
-        <v>0.0002571363992731612</v>
+        <v>0.0002090646299723886</v>
       </c>
       <c r="I20">
-        <v>0.001605043435120024</v>
+        <v>0.001954100623697386</v>
       </c>
       <c r="J20">
-        <v>0.8458060385487443</v>
+        <v>0.6612204257396144</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2377814083762004</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2022284573566644</v>
       </c>
       <c r="N20">
-        <v>0.2133810686348312</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.625044680224967</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2290543630157913</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6337301840650227</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.278294508986107</v>
+        <v>4.270556570421036</v>
       </c>
       <c r="C21">
-        <v>0.82123069599686</v>
+        <v>0.9777902286072049</v>
       </c>
       <c r="D21">
-        <v>0.04240297614468957</v>
+        <v>0.0564162500930081</v>
       </c>
       <c r="E21">
-        <v>0.07441440901559337</v>
+        <v>0.06862553031480312</v>
       </c>
       <c r="F21">
-        <v>1.654962468653039</v>
+        <v>1.186326668601453</v>
       </c>
       <c r="G21">
-        <v>1.605292967635222</v>
+        <v>1.225109896454455</v>
       </c>
       <c r="H21">
-        <v>9.982001898189985E-05</v>
+        <v>8.397252321223903E-05</v>
       </c>
       <c r="I21">
-        <v>0.002229437143414614</v>
+        <v>0.002562868903520865</v>
       </c>
       <c r="J21">
-        <v>0.9230771803587174</v>
+        <v>0.5427682682582997</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2268616427382746</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2103172868194108</v>
       </c>
       <c r="N21">
-        <v>0.2481518809577921</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7095789540329704</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2644438142931733</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7188562186367022</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.593905405491228</v>
+        <v>4.582252198141418</v>
       </c>
       <c r="C22">
-        <v>0.8701629459522167</v>
+        <v>1.036059064041609</v>
       </c>
       <c r="D22">
-        <v>0.04278033032024808</v>
+        <v>0.06056356700048582</v>
       </c>
       <c r="E22">
-        <v>0.0778700897554967</v>
+        <v>0.07106690658187098</v>
       </c>
       <c r="F22">
-        <v>1.762683204983944</v>
+        <v>1.21078355920065</v>
       </c>
       <c r="G22">
-        <v>1.711769394110433</v>
+        <v>1.343775513436526</v>
       </c>
       <c r="H22">
-        <v>0.0005489417141848474</v>
+        <v>0.0004259048625265827</v>
       </c>
       <c r="I22">
-        <v>0.002966383778926662</v>
+        <v>0.00301973908942621</v>
       </c>
       <c r="J22">
-        <v>0.9697511204485068</v>
+        <v>0.4642429420569556</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.218133778416</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2138309241363743</v>
       </c>
       <c r="N22">
-        <v>0.2650751089881425</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7612958212629195</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2813950963769685</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7707698958440403</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.425629791253868</v>
+        <v>4.416162240627273</v>
       </c>
       <c r="C23">
-        <v>0.8406536653537842</v>
+        <v>1.002614270633813</v>
       </c>
       <c r="D23">
-        <v>0.04245491327025164</v>
+        <v>0.05766867831633249</v>
       </c>
       <c r="E23">
-        <v>0.07611528111274923</v>
+        <v>0.06984280204593007</v>
       </c>
       <c r="F23">
-        <v>1.712924546117335</v>
+        <v>1.210691622556155</v>
       </c>
       <c r="G23">
-        <v>1.663854738353791</v>
+        <v>1.279122527332731</v>
       </c>
       <c r="H23">
-        <v>0.0002677480182393666</v>
+        <v>0.0002154360340194117</v>
       </c>
       <c r="I23">
-        <v>0.002224773690490345</v>
+        <v>0.00238768017552804</v>
       </c>
       <c r="J23">
-        <v>0.9493494279337256</v>
+        <v>0.5238536746553137</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2255319954525845</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2152760715747988</v>
       </c>
       <c r="N23">
-        <v>0.2557648577729168</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7335001234306233</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2722095002288825</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7429592124301365</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.790356458147528</v>
+        <v>3.78760663232066</v>
       </c>
       <c r="C24">
-        <v>0.7354947418975257</v>
+        <v>0.8760506003765158</v>
       </c>
       <c r="D24">
-        <v>0.04138770929803925</v>
+        <v>0.04986781100516069</v>
       </c>
       <c r="E24">
-        <v>0.06942457161080062</v>
+        <v>0.06499679486507581</v>
       </c>
       <c r="F24">
-        <v>1.514961192176202</v>
+        <v>1.160900465376287</v>
       </c>
       <c r="G24">
-        <v>1.470794795519822</v>
+        <v>1.075281019106072</v>
       </c>
       <c r="H24">
-        <v>0.0001199877886362</v>
+        <v>7.646612065292935E-05</v>
       </c>
       <c r="I24">
-        <v>0.001116236864930897</v>
+        <v>0.001366743362139822</v>
       </c>
       <c r="J24">
-        <v>0.8662806652814368</v>
+        <v>0.6767912355098247</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2445713981227868</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2093269697487585</v>
       </c>
       <c r="N24">
-        <v>0.2212188637205372</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6289715532077409</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2374199642851522</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6378347141266403</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109151970739674</v>
+        <v>3.110704754747815</v>
       </c>
       <c r="C25">
-        <v>0.6238816247400507</v>
+        <v>0.7286412120986654</v>
       </c>
       <c r="D25">
-        <v>0.04014883785057322</v>
+        <v>0.04539014499081873</v>
       </c>
       <c r="E25">
-        <v>0.06236550856475143</v>
+        <v>0.05927194758167476</v>
       </c>
       <c r="F25">
-        <v>1.307718932958409</v>
+        <v>1.028789802861539</v>
       </c>
       <c r="G25">
-        <v>1.26852954787995</v>
+        <v>0.9435092073434816</v>
       </c>
       <c r="H25">
-        <v>0.001713290472380447</v>
+        <v>0.001286346073508193</v>
       </c>
       <c r="I25">
-        <v>0.002309587444552008</v>
+        <v>0.001980353354000819</v>
       </c>
       <c r="J25">
-        <v>0.7798860111221586</v>
+        <v>0.6416414915460962</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.249089088772287</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1872075543214891</v>
       </c>
       <c r="N25">
-        <v>0.1844185000820744</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.51697239401296</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1990920593960439</v>
       </c>
       <c r="Q25">
+        <v>0.524317536942327</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
